--- a/biology/Médecine/William_Fry/William_Fry.xlsx
+++ b/biology/Médecine/William_Fry/William_Fry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William F. Fry (né le 25 mars 1924 à Cincinnati, Ohio, mort le 16 mai 2014) est un psychiatre américain, pionnier de la thérapie familiale et de la thérapie par l'humour et membre fondateur de l'École de Palo Alto.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Fry suit ses études de médecine de 1942 à 1949 à l'Université de l'Orégon, l'University of Southern California de Los Angeles et l'Université de Cincinnati.
 En 1952 William Fry rejoint l'équipe que l'anthropologue Gregory Bateson a réunie au sein du Veterans Administration Hospital de Palo Alto pour réaliser une étude du « paradoxe de l'abstraction dans la communication ». Parmi les autres membres de l'équipe on trouve l'étudiant en communication Jay Haley et l'anthropologue John Weakland.  L'équipe s'intéresse à l'humour, au Zen (ils rencontrent Alan Watts et Daisetz Teitaro Suzuki), à l'hypnose (nombreuses rencontres avec Milton Erickson). En 1954, Fry quitte le projet Bateson pour faire son service dans l'US Navy.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Fry, W.F., Sweet Madness. A Study of Humor, Pacific Books, Palo Aloto, Calif., 1963
 (en) Fry, W.F. &amp; M. Allen, Make ‘em Laugh. Life Studies of Comedy Writers. Science and Behavior Books, Palo Alto, Calif., 1975
